--- a/SA_Parameters.xlsx
+++ b/SA_Parameters.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\4_CodeLearn\Python\SPOTPY-and-pySWATPlus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BaiduSyncdisk\Code\Python\SPOTPY-and-pySWATPlus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7430A90B-7C54-41FD-B452-CE4CE55F1A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D459CAAE-9B35-48CD-98F2-ECF70D91E1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="All_params" sheetId="1" r:id="rId1"/>
+    <sheet name="Most_sensitive_par" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="184">
-  <si>
-    <t>Variable</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="215">
   <si>
     <t>File</t>
   </si>
@@ -60,9 +59,6 @@
     <t>Hydrology</t>
   </si>
   <si>
-    <t>can_max</t>
-  </si>
-  <si>
     <t>mm</t>
   </si>
   <si>
@@ -72,33 +68,15 @@
     <t>-</t>
   </si>
   <si>
-    <t>epco</t>
-  </si>
-  <si>
-    <t>cn3_swf</t>
-  </si>
-  <si>
     <t>perco</t>
   </si>
   <si>
     <t>latq_co</t>
   </si>
   <si>
-    <t>cn_a</t>
-  </si>
-  <si>
     <t>cntable.lum</t>
   </si>
   <si>
-    <t>cn_b</t>
-  </si>
-  <si>
-    <t>cn_c</t>
-  </si>
-  <si>
-    <t>cn_d</t>
-  </si>
-  <si>
     <t>gw_flo</t>
   </si>
   <si>
@@ -117,21 +95,12 @@
     <t>ppm</t>
   </si>
   <si>
-    <t>flo_dist</t>
-  </si>
-  <si>
-    <t>bf_max</t>
-  </si>
-  <si>
     <t>alpha_bf</t>
   </si>
   <si>
     <t>1/days</t>
   </si>
   <si>
-    <t>revap</t>
-  </si>
-  <si>
     <t>rchg_dp</t>
   </si>
   <si>
@@ -159,9 +128,6 @@
     <t>melt_tmp</t>
   </si>
   <si>
-    <t>lag</t>
-  </si>
-  <si>
     <t>snow_h2o</t>
   </si>
   <si>
@@ -177,58 +143,16 @@
     <t>tiledrain.str</t>
   </si>
   <si>
-    <t>drain</t>
-  </si>
-  <si>
-    <t>t_fc</t>
-  </si>
-  <si>
     <t>hrs</t>
   </si>
   <si>
-    <t>rad</t>
-  </si>
-  <si>
-    <t>dist</t>
-  </si>
-  <si>
     <t>mm/day</t>
   </si>
   <si>
-    <t>pump</t>
-  </si>
-  <si>
     <t>mm/hr</t>
   </si>
   <si>
-    <t>lai_noevap</t>
-  </si>
-  <si>
     <t>parameters.bsn</t>
-  </si>
-  <si>
-    <t>sw_init</t>
-  </si>
-  <si>
-    <t>surq_lag</t>
-  </si>
-  <si>
-    <t>msk_co1</t>
-  </si>
-  <si>
-    <t>msk_co2</t>
-  </si>
-  <si>
-    <t>msk_x</t>
-  </si>
-  <si>
-    <t>evap_adj</t>
-  </si>
-  <si>
-    <t>scoef</t>
-  </si>
-  <si>
-    <t>surq_exp</t>
   </si>
   <si>
     <t>Lateral flow travel time</t>
@@ -385,22 +309,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>orgn_min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Nitrogen uptake distribution parameter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>n_uptake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n_perc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Nitrate percolation coefficient</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -409,18 +321,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rsd_decomp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Concentration coefficient for tile flow and leach from bottom layer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nperco_lchtile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Calibration coefficient to control impact of the storage time constant for the reach at bankfull depth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -449,26 +353,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>denit_exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Denitrification threshold water content</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>denit_frac</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Maximum daily-n fixation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>n_fix_max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kg/ha</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -477,18 +369,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rsd_decay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Residue cover factor for computing fraction of cover</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rsd_cover</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Exponential coeffcient for overland flow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -497,10 +381,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>exp_co</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nutrients.sol</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -513,22 +393,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nitrate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fraction of soil humus that is active</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fr_hum_act</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hum_c_n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Humus C:N ratio</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -569,10 +437,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rsd_init</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>plant.ini</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -585,10 +449,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ovn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Overland flow mannings n (ovn_mean, ovn_min, ovn_max)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -597,10 +457,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lum.dtl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -613,22 +469,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lat_ttime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tmp_lag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lateral flow coefficient</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pet_co</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>melt_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -641,23 +485,261 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lat_ksat</t>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>mu_star</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>mu_star_conf</t>
+  </si>
+  <si>
+    <t>Standardized SI (%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mu</t>
-  </si>
-  <si>
-    <t>mu_star</t>
-  </si>
-  <si>
-    <t>sigma</t>
-  </si>
-  <si>
-    <t>mu_star_conf</t>
-  </si>
-  <si>
-    <t>Standardized SI (%)</t>
+    <t>Parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cummulative standardized SI (%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sensitivity rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HL_NO3N</t>
+  </si>
+  <si>
+    <t>DEP_BOT</t>
+  </si>
+  <si>
+    <t>FLO_MIN</t>
+  </si>
+  <si>
+    <t>SOIL_K</t>
+  </si>
+  <si>
+    <t>NO3_N</t>
+  </si>
+  <si>
+    <t>COV50</t>
+  </si>
+  <si>
+    <t>MELT_TMP</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>AWC</t>
+  </si>
+  <si>
+    <t>DEP_WT</t>
+  </si>
+  <si>
+    <t>PERCO</t>
+  </si>
+  <si>
+    <t>LATQ_CO</t>
+  </si>
+  <si>
+    <t>MELT_MAX</t>
+  </si>
+  <si>
+    <t>MELT_MIN</t>
+  </si>
+  <si>
+    <t>REVAP_MIN</t>
+  </si>
+  <si>
+    <t>SPEC_YLD</t>
+  </si>
+  <si>
+    <t>ALPHA_BF</t>
+  </si>
+  <si>
+    <t>SNOW_H2O</t>
+  </si>
+  <si>
+    <t>FALL_TMP</t>
+  </si>
+  <si>
+    <t>ESCO</t>
+  </si>
+  <si>
+    <t>SNOW_INIT</t>
+  </si>
+  <si>
+    <t>GW_FLO</t>
+  </si>
+  <si>
+    <t>RCHG_DP</t>
+  </si>
+  <si>
+    <t>T_FC</t>
+  </si>
+  <si>
+    <t>EPCO</t>
+  </si>
+  <si>
+    <t>PET_CO</t>
+  </si>
+  <si>
+    <t>CN_C</t>
+  </si>
+  <si>
+    <t>CAN_MAX</t>
+  </si>
+  <si>
+    <t>FR_HUM_ACT</t>
+  </si>
+  <si>
+    <t>SW_INIT</t>
+  </si>
+  <si>
+    <t>CN3_SWF</t>
+  </si>
+  <si>
+    <t>RSD_DECAY</t>
+  </si>
+  <si>
+    <t>CN_D</t>
+  </si>
+  <si>
+    <t>DENIT_FRAC</t>
+  </si>
+  <si>
+    <t>REVAP</t>
+  </si>
+  <si>
+    <t>CN_B</t>
+  </si>
+  <si>
+    <t>FERT</t>
+  </si>
+  <si>
+    <t>NITRATE</t>
+  </si>
+  <si>
+    <t>DENIT_EXP</t>
+  </si>
+  <si>
+    <t>DRAIN</t>
+  </si>
+  <si>
+    <t>ORGN_MIN</t>
+  </si>
+  <si>
+    <t>NPERCO_LCHTILE</t>
+  </si>
+  <si>
+    <t>RSD_INIT</t>
+  </si>
+  <si>
+    <t>CN_A</t>
+  </si>
+  <si>
+    <t>N_PERC</t>
+  </si>
+  <si>
+    <t>OVN</t>
+  </si>
+  <si>
+    <t>N_UPTAKE</t>
+  </si>
+  <si>
+    <t>TMP_LAG</t>
+  </si>
+  <si>
+    <t>BF_MAX</t>
+  </si>
+  <si>
+    <t>FLO_DIST</t>
+  </si>
+  <si>
+    <t>LAT_TTIME</t>
+  </si>
+  <si>
+    <t>EXP_CO</t>
+  </si>
+  <si>
+    <t>HUM_C_N</t>
+  </si>
+  <si>
+    <t>EVAP_ADJ</t>
+  </si>
+  <si>
+    <t>LAI_NOEVAP</t>
+  </si>
+  <si>
+    <t>MSK_CO1</t>
+  </si>
+  <si>
+    <t>MSK_CO2</t>
+  </si>
+  <si>
+    <t>MSK_X</t>
+  </si>
+  <si>
+    <t>N_FIX_MAX</t>
+  </si>
+  <si>
+    <t>RSD_COVER</t>
+  </si>
+  <si>
+    <t>RSD_DECOMP</t>
+  </si>
+  <si>
+    <t>SCOEF</t>
+  </si>
+  <si>
+    <t>SURQ_EXP</t>
+  </si>
+  <si>
+    <t>SURQ_LAG</t>
+  </si>
+  <si>
+    <t>DIST</t>
+  </si>
+  <si>
+    <t>LAG</t>
+  </si>
+  <si>
+    <t>LAT_KSAT</t>
+  </si>
+  <si>
+    <t>PUMP</t>
+  </si>
+  <si>
+    <t>RAD</t>
+  </si>
+  <si>
+    <t>Definition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lower bound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upper bound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>℃</t>
+  </si>
+  <si>
+    <t>℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm/℃/day</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -822,224 +904,9 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$2:$B$70</c:f>
-              <c:strCache>
-                <c:ptCount val="69"/>
-                <c:pt idx="0">
-                  <c:v>hl_no3n</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>dep_bot</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>flo_min</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>soil_k</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>no3_n</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>cov50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>melt_tmp</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>dp</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>awc</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>dep_wt</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>perco</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>latq_co</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>melt_max</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>melt_min</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>revap_min</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>spec_yld</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>alpha_bf</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>snow_h2o</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>fall_tmp</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>esco</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>snow_init</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>gw_flo</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>rchg_dp</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>t_fc</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>epco</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>pet_co</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>cn_c</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>can_max</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>fr_hum_act</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>sw_init</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>cn3_swf</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>rsd_decay</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>cn_d</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>denit_frac</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>revap</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>cn_b</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>fert</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>nitrate</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>denit_exp</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>drain</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>orgn_min</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>nperco_lchtile</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>rsd_init</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>cn_a</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>n_perc</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>ovn</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>n_uptake</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>tmp_lag</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>bf_max</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>flo_dist</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>lat_ttime</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>exp_co</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>hum_c_n</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>evap_adj</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>lai_noevap</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>msk_co1</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>msk_co2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>msk_x</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>n_fix_max</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>rsd_cover</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>rsd_decomp</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>scoef</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>surq_exp</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>surq_lag</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>dist</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>lag</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>lat_ksat</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>pump</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>rad</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$2:$M$70</c:f>
+              <c:f>All_params!$M$2:$M$70</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="69"/>
@@ -1254,6 +1121,21 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>All_params!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F025-4F1D-96B8-672DC9CA9159}"/>
             </c:ext>
@@ -2278,10 +2160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:N113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -2289,7 +2171,7 @@
     <col min="1" max="1" width="10.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.1484375" customWidth="1"/>
     <col min="3" max="3" width="19.25" customWidth="1"/>
-    <col min="4" max="4" width="17.546875" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
     <col min="5" max="5" width="8.84765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.84765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.59765625" bestFit="1" customWidth="1"/>
@@ -2300,57 +2182,57 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="I1" s="6" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="E2" s="3">
         <v>0</v>
@@ -2359,10 +2241,10 @@
         <v>200</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="I2" s="5">
         <v>42.503077777777698</v>
@@ -2386,16 +2268,16 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
@@ -2404,10 +2286,10 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" s="5">
         <v>25.26285</v>
@@ -2431,16 +2313,16 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -2449,10 +2331,10 @@
         <v>50</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I4" s="5">
         <v>13.774377777777699</v>
@@ -2476,16 +2358,16 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
@@ -2494,10 +2376,10 @@
         <v>2000</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="I5" s="5">
         <v>6.1054111111111098</v>
@@ -2521,16 +2403,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
@@ -2539,10 +2421,10 @@
         <v>1000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="I6" s="5">
         <v>6.3928055555555501</v>
@@ -2566,16 +2448,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="E7" s="3">
         <v>0</v>
@@ -2584,10 +2466,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I7" s="5">
         <v>4.5201888888888799</v>
@@ -2611,16 +2493,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E8" s="3">
         <v>-5</v>
@@ -2629,10 +2511,10 @@
         <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8" s="5">
         <v>3.52826666666666</v>
@@ -2656,16 +2538,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -2674,10 +2556,10 @@
         <v>6000</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I9" s="5">
         <v>-3.5625944444444402</v>
@@ -2701,16 +2583,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -2719,10 +2601,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="I10" s="5">
         <v>0.891505555555555</v>
@@ -2746,16 +2628,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
@@ -2764,10 +2646,10 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I11" s="5">
         <v>-1.98885555555555</v>
@@ -2791,16 +2673,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -2809,10 +2691,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I12" s="5">
         <v>2.2202222222222199</v>
@@ -2836,16 +2718,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -2854,10 +2736,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I13" s="5">
         <v>-2.1642555555555498</v>
@@ -2881,16 +2763,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -2899,10 +2781,10 @@
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I14" s="5">
         <v>0.427433333333333</v>
@@ -2926,16 +2808,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -2944,10 +2826,10 @@
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I15" s="5">
         <v>0.427433333333333</v>
@@ -2971,16 +2853,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -2989,10 +2871,10 @@
         <v>50</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I16" s="5">
         <v>-1.59303888888888</v>
@@ -3016,16 +2898,16 @@
     </row>
     <row r="17" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -3034,10 +2916,10 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I17" s="5">
         <v>-1.1381944444444401</v>
@@ -3061,16 +2943,16 @@
     </row>
     <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A18" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>156</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -3079,10 +2961,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I18" s="5">
         <v>-0.83348888888888895</v>
@@ -3106,16 +2988,16 @@
     </row>
     <row r="19" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A19" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
@@ -3124,10 +3006,10 @@
         <v>500</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I19" s="5">
         <v>-1.0137444444444399</v>
@@ -3151,16 +3033,16 @@
     </row>
     <row r="20" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="E20" s="3">
         <v>-5</v>
@@ -3169,10 +3051,10 @@
         <v>5</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I20" s="5">
         <v>0.73090555555555503</v>
@@ -3196,16 +3078,16 @@
     </row>
     <row r="21" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A21" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -3214,10 +3096,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I21" s="5">
         <v>-0.72382222222222203</v>
@@ -3241,16 +3123,16 @@
     </row>
     <row r="22" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -3259,10 +3141,10 @@
         <v>1000</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I22" s="5">
         <v>-0.52748333333333297</v>
@@ -3286,16 +3168,16 @@
     </row>
     <row r="23" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A23" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -3304,10 +3186,10 @@
         <v>2</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I23" s="5">
         <v>0.60481111111111097</v>
@@ -3331,16 +3213,16 @@
     </row>
     <row r="24" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A24" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -3349,10 +3231,10 @@
         <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I24" s="5">
         <v>0.34553888888888801</v>
@@ -3376,16 +3258,16 @@
     </row>
     <row r="25" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A25" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
@@ -3394,10 +3276,10 @@
         <v>100</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I25" s="5">
         <v>0.22693333333333299</v>
@@ -3421,16 +3303,16 @@
     </row>
     <row r="26" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A26" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -3439,10 +3321,10 @@
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I26" s="5">
         <v>-0.138155555555556</v>
@@ -3466,16 +3348,16 @@
     </row>
     <row r="27" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A27" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="E27" s="3">
         <v>0.7</v>
@@ -3484,10 +3366,10 @@
         <v>1.3</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I27" s="5">
         <v>-0.12232777777777699</v>
@@ -3511,16 +3393,16 @@
     </row>
     <row r="28" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A28" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="E28" s="3">
         <v>70</v>
@@ -3529,10 +3411,10 @@
         <v>90</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I28" s="5">
         <v>-8.1111111111111106E-2</v>
@@ -3556,16 +3438,16 @@
     </row>
     <row r="29" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A29" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -3574,10 +3456,10 @@
         <v>100</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I29" s="5">
         <v>5.3500000000001099E-3</v>
@@ -3601,16 +3483,16 @@
     </row>
     <row r="30" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A30" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -3619,10 +3501,10 @@
         <v>1</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="I30" s="5">
         <v>6.6583333333333702E-2</v>
@@ -3646,16 +3528,16 @@
     </row>
     <row r="31" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A31" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>169</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="E31" s="3">
         <v>0</v>
@@ -3664,10 +3546,10 @@
         <v>1</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I31" s="5">
         <v>-2.08166666666658E-2</v>
@@ -3691,16 +3573,16 @@
     </row>
     <row r="32" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A32" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -3709,10 +3591,10 @@
         <v>1</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I32" s="5">
         <v>4.2016666666666598E-2</v>
@@ -3736,16 +3618,16 @@
     </row>
     <row r="33" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A33" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -3754,10 +3636,10 @@
         <v>0.05</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="I33" s="5">
         <v>-2.9505555555556E-2</v>
@@ -3781,16 +3663,16 @@
     </row>
     <row r="34" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A34" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="E34" s="3">
         <v>80</v>
@@ -3799,10 +3681,10 @@
         <v>95</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I34" s="5">
         <v>-2.4155555555555201E-2</v>
@@ -3826,16 +3708,16 @@
     </row>
     <row r="35" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A35" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -3844,10 +3726,10 @@
         <v>1</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="I35" s="5">
         <v>2.3561111111111002E-2</v>
@@ -3871,16 +3753,16 @@
     </row>
     <row r="36" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A36" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="E36" s="3">
         <v>0.02</v>
@@ -3889,10 +3771,10 @@
         <v>0.2</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I36" s="5">
         <v>9.0944444444444692E-3</v>
@@ -3916,16 +3798,16 @@
     </row>
     <row r="37" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A37" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="E37" s="3">
         <v>50</v>
@@ -3934,10 +3816,10 @@
         <v>80</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I37" s="5">
         <v>-1.55055555555555E-2</v>
@@ -3961,16 +3843,16 @@
     </row>
     <row r="38" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A38" s="2" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="E38" s="3">
         <v>0</v>
@@ -3979,10 +3861,10 @@
         <v>1000</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="I38" s="5">
         <v>1.2283333333333601E-2</v>
@@ -4006,16 +3888,16 @@
     </row>
     <row r="39" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A39" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="E39" s="3">
         <v>0</v>
@@ -4024,10 +3906,10 @@
         <v>100</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="I39" s="5">
         <v>1.15333333333333E-2</v>
@@ -4051,16 +3933,16 @@
     </row>
     <row r="40" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A40" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="E40" s="3">
         <v>0</v>
@@ -4069,10 +3951,10 @@
         <v>3</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="I40" s="5">
         <v>-5.5277777777777799E-3</v>
@@ -4096,16 +3978,16 @@
     </row>
     <row r="41" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A41" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>47</v>
+        <v>179</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="E41" s="3">
         <v>10</v>
@@ -4114,10 +3996,10 @@
         <v>51</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I41" s="5">
         <v>-4.5777777777778602E-3</v>
@@ -4141,16 +4023,16 @@
     </row>
     <row r="42" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A42" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="E42" s="3">
         <v>1E-3</v>
@@ -4159,10 +4041,10 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="I42" s="5">
         <v>4.2611111111102301E-3</v>
@@ -4186,16 +4068,16 @@
     </row>
     <row r="43" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A43" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -4204,10 +4086,10 @@
         <v>1</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="I43" s="5">
         <v>-1.9055555555555501E-3</v>
@@ -4231,16 +4113,16 @@
     </row>
     <row r="44" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A44" s="2" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
@@ -4249,10 +4131,10 @@
         <v>10000</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="I44" s="5">
         <v>5.6666666666673501E-4</v>
@@ -4276,16 +4158,16 @@
     </row>
     <row r="45" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A45" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="E45" s="3">
         <v>30</v>
@@ -4294,10 +4176,10 @@
         <v>70</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I45" s="5">
         <v>4.2777777777746299E-4</v>
@@ -4321,16 +4203,16 @@
     </row>
     <row r="46" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A46" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -4339,10 +4221,10 @@
         <v>1</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="I46" s="5">
         <v>-9.3333333333360004E-4</v>
@@ -4366,16 +4248,16 @@
     </row>
     <row r="47" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A47" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="E47" s="3">
         <v>0.01</v>
@@ -4384,10 +4266,10 @@
         <v>0.7</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="I47" s="5">
         <v>9.2222222222214498E-4</v>
@@ -4411,16 +4293,16 @@
     </row>
     <row r="48" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A48" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>116</v>
+        <v>186</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -4429,10 +4311,10 @@
         <v>100</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="I48" s="5">
         <v>-4.8888888888929305E-4</v>
@@ -4456,16 +4338,16 @@
     </row>
     <row r="49" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A49" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
@@ -4474,10 +4356,10 @@
         <v>1</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I49" s="5">
         <v>-7.2222222222041496E-5</v>
@@ -4501,16 +4383,16 @@
     </row>
     <row r="50" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A50" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>28</v>
+        <v>188</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E50" s="3">
         <v>0</v>
@@ -4519,10 +4401,10 @@
         <v>2</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I50" s="5">
         <v>0</v>
@@ -4546,16 +4428,16 @@
     </row>
     <row r="51" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A51" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>27</v>
+        <v>189</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E51" s="3">
         <v>0</v>
@@ -4564,10 +4446,10 @@
         <v>200</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I51" s="5">
         <v>0</v>
@@ -4591,16 +4473,16 @@
     </row>
     <row r="52" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A52" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E52" s="3">
         <v>0.5</v>
@@ -4609,10 +4491,10 @@
         <v>180</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I52" s="5">
         <v>0</v>
@@ -4636,16 +4518,16 @@
     </row>
     <row r="53" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A53" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="E53" s="3">
         <v>0</v>
@@ -4654,10 +4536,10 @@
         <v>1</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="I53" s="5">
         <v>0</v>
@@ -4681,16 +4563,16 @@
     </row>
     <row r="54" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A54" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="E54" s="3">
         <v>8</v>
@@ -4699,10 +4581,10 @@
         <v>12</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="I54" s="5">
         <v>0</v>
@@ -4726,16 +4608,16 @@
     </row>
     <row r="55" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A55" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>193</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="E55" s="3">
         <v>0.5</v>
@@ -4744,10 +4626,10 @@
         <v>1</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="I55" s="5">
         <v>0</v>
@@ -4771,16 +4653,16 @@
     </row>
     <row r="56" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A56" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>55</v>
+        <v>194</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="E56" s="3">
         <v>0</v>
@@ -4789,10 +4671,10 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I56" s="5">
         <v>0</v>
@@ -4816,16 +4698,16 @@
     </row>
     <row r="57" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A57" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -4834,10 +4716,10 @@
         <v>10</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="I57" s="5">
         <v>0</v>
@@ -4861,16 +4743,16 @@
     </row>
     <row r="58" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A58" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -4879,10 +4761,10 @@
         <v>10</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="I58" s="5">
         <v>0</v>
@@ -4906,16 +4788,16 @@
     </row>
     <row r="59" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A59" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>61</v>
+        <v>197</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -4924,10 +4806,10 @@
         <v>0.3</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="I59" s="5">
         <v>0</v>
@@ -4951,16 +4833,16 @@
     </row>
     <row r="60" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A60" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>134</v>
+        <v>198</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
         <v>1</v>
@@ -4969,10 +4851,10 @@
         <v>20</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="I60" s="5">
         <v>0</v>
@@ -4996,16 +4878,16 @@
     </row>
     <row r="61" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A61" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>139</v>
+        <v>199</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="E61" s="3">
         <v>0.1</v>
@@ -5014,10 +4896,10 @@
         <v>0.5</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="I61" s="5">
         <v>0</v>
@@ -5041,16 +4923,16 @@
     </row>
     <row r="62" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A62" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="E62" s="3">
         <v>0.02</v>
@@ -5059,10 +4941,10 @@
         <v>0.1</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="I62" s="5">
         <v>0</v>
@@ -5086,16 +4968,16 @@
     </row>
     <row r="63" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A63" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>63</v>
+        <v>201</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="E63" s="3">
         <v>0</v>
@@ -5104,10 +4986,10 @@
         <v>1</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="I63" s="5">
         <v>0</v>
@@ -5131,16 +5013,16 @@
     </row>
     <row r="64" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A64" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="E64" s="3">
         <v>1</v>
@@ -5149,10 +5031,10 @@
         <v>3</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="I64" s="5">
         <v>0</v>
@@ -5176,16 +5058,16 @@
     </row>
     <row r="65" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A65" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>58</v>
+        <v>203</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="E65" s="3">
         <v>1</v>
@@ -5194,10 +5076,10 @@
         <v>24</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I65" s="5">
         <v>0</v>
@@ -5221,16 +5103,16 @@
     </row>
     <row r="66" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A66" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>51</v>
+        <v>204</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="E66" s="3">
         <v>7600</v>
@@ -5239,10 +5121,10 @@
         <v>30000</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I66" s="5">
         <v>0</v>
@@ -5266,16 +5148,16 @@
     </row>
     <row r="67" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A67" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>41</v>
+        <v>205</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="E67" s="3">
         <v>0</v>
@@ -5284,10 +5166,10 @@
         <v>100</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I67" s="5">
         <v>0</v>
@@ -5311,16 +5193,16 @@
     </row>
     <row r="68" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A68" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="E68" s="3">
         <v>0.01</v>
@@ -5329,10 +5211,10 @@
         <v>4</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I68" s="5">
         <v>0</v>
@@ -5356,16 +5238,16 @@
     </row>
     <row r="69" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A69" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>53</v>
+        <v>207</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="E69" s="3">
         <v>0</v>
@@ -5374,10 +5256,10 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I69" s="5">
         <v>0</v>
@@ -5401,16 +5283,16 @@
     </row>
     <row r="70" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A70" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>50</v>
+        <v>208</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="E70" s="3">
         <v>3</v>
@@ -5419,10 +5301,10 @@
         <v>40</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I70" s="5">
         <v>0</v>
@@ -5446,6 +5328,149 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.5">
       <c r="J71" s="4"/>
+    </row>
+    <row r="90" spans="4:7" x14ac:dyDescent="0.5">
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="6"/>
+    </row>
+    <row r="91" spans="4:7" x14ac:dyDescent="0.5">
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+    </row>
+    <row r="92" spans="4:7" x14ac:dyDescent="0.5">
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+    </row>
+    <row r="93" spans="4:7" x14ac:dyDescent="0.5">
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+    </row>
+    <row r="94" spans="4:7" x14ac:dyDescent="0.5">
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+    </row>
+    <row r="95" spans="4:7" x14ac:dyDescent="0.5">
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+    </row>
+    <row r="96" spans="4:7" x14ac:dyDescent="0.5">
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+    </row>
+    <row r="97" spans="4:7" x14ac:dyDescent="0.5">
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+    </row>
+    <row r="98" spans="4:7" x14ac:dyDescent="0.5">
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+    </row>
+    <row r="99" spans="4:7" x14ac:dyDescent="0.5">
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+    </row>
+    <row r="100" spans="4:7" x14ac:dyDescent="0.5">
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+    </row>
+    <row r="101" spans="4:7" x14ac:dyDescent="0.5">
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+    </row>
+    <row r="102" spans="4:7" x14ac:dyDescent="0.5">
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+    </row>
+    <row r="103" spans="4:7" x14ac:dyDescent="0.5">
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+    </row>
+    <row r="104" spans="4:7" x14ac:dyDescent="0.5">
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+    </row>
+    <row r="105" spans="4:7" x14ac:dyDescent="0.5">
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+    </row>
+    <row r="106" spans="4:7" x14ac:dyDescent="0.5">
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+    </row>
+    <row r="107" spans="4:7" x14ac:dyDescent="0.5">
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+    </row>
+    <row r="108" spans="4:7" x14ac:dyDescent="0.5">
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+    </row>
+    <row r="109" spans="4:7" x14ac:dyDescent="0.5">
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+    </row>
+    <row r="110" spans="4:7" x14ac:dyDescent="0.5">
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+    </row>
+    <row r="111" spans="4:7" x14ac:dyDescent="0.5">
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+    </row>
+    <row r="112" spans="4:7" x14ac:dyDescent="0.5">
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+    </row>
+    <row r="113" spans="4:7" x14ac:dyDescent="0.5">
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M70">
@@ -5456,4 +5481,2373 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F069071-3E1F-4E94-B6B3-58BF6BDB0B56}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="2" width="12.94921875" customWidth="1"/>
+    <col min="3" max="3" width="19.1484375" customWidth="1"/>
+    <col min="4" max="4" width="27.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5">
+        <v>31.461978751830404</v>
+      </c>
+      <c r="D2" s="5">
+        <f>C2</f>
+        <v>31.461978751830404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5">
+        <v>22.053805217326111</v>
+      </c>
+      <c r="D3" s="5">
+        <f>C3+D2</f>
+        <v>53.515783969156516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5">
+        <v>10.196183514755008</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:D24" si="0">C4+D3</f>
+        <v>63.711967483911522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6.6964748356940138</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>70.408442319605541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4.7321352492414333</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>75.140577568846979</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3.3461030930684039</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>78.486680661915386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2.9949059136999168</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>81.481586575615296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2.637133040071352</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>84.118719615686643</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1.7003824183618701</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>85.819102034048512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1.6519427043597441</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>87.471044738408253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1.6434712033117489</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>89.114515941720001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1.6020430957595428</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>90.716559037479541</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1.2815078153298303</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>91.998066852809373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1.2815078153298303</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>93.279574668139205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1.1812274497689346</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>94.460802117908145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.87674689753891766</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>95.337549015447067</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.80545058022379934</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>96.142999595670872</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.78242125698652198</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>96.925420852657396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.54131657982966908</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>97.466737432487065</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.5357936546318719</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>98.002531087118939</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.47847120166679707</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>98.481002288785731</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.44769826849098443</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>98.928700557276713</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.35727116337232251</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="0"/>
+        <v>99.28597172064903</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F97A91-9647-477F-AE3D-64CEF14AACEA}">
+  <dimension ref="A2:L71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="15.1484375" customWidth="1"/>
+    <col min="3" max="3" width="89.94921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.8984375" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>200</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>50</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>50</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>200</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="3">
+        <v>30</v>
+      </c>
+      <c r="E16" s="3">
+        <v>70</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="3">
+        <v>50</v>
+      </c>
+      <c r="E17" s="3">
+        <v>80</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="3">
+        <v>70</v>
+      </c>
+      <c r="E18" s="3">
+        <v>90</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="3">
+        <v>80</v>
+      </c>
+      <c r="E19" s="3">
+        <v>95</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>180</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A28" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="3">
+        <v>8</v>
+      </c>
+      <c r="E30" s="3">
+        <v>12</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>100</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>10</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>10</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>10</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40" s="3">
+        <v>20</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>100</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A48" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1</v>
+      </c>
+      <c r="E50" s="3">
+        <v>24</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" s="3">
+        <v>-5</v>
+      </c>
+      <c r="E53" s="3">
+        <v>5</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>10</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A55" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <v>10</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="3">
+        <v>-5</v>
+      </c>
+      <c r="E56" s="3">
+        <v>5</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A59" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A62" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="3">
+        <v>10</v>
+      </c>
+      <c r="E62" s="3">
+        <v>51</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A63" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3">
+        <v>100</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A64" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E64" s="3">
+        <v>4</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A65" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+      <c r="E65" s="3">
+        <v>10</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A66" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D66" s="3">
+        <v>3</v>
+      </c>
+      <c r="E66" s="3">
+        <v>40</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A67" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3">
+        <v>100</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A68" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A69" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A70" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A71" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0</v>
+      </c>
+      <c r="E71" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:G71">
+    <sortCondition ref="B3:B71"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>